--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MogoGit\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -123,11 +123,18 @@
     <t>王云飞</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,10 +942,18 @@
       <c r="N2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18"/>
+      <c r="O2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="13">
+        <v>42698</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="18">
+        <v>5343</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="25"/>
